--- a/xlsx/00测试教程test.xlsx
+++ b/xlsx/00测试教程test.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\project_git\excel2json\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BACDA14-402E-4A04-9BF9-64DFABFB031F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9BE7598-46A0-4AD8-B24D-2C8830818F92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1110" yWindow="-120" windowWidth="27810" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1110" yWindow="-120" windowWidth="27810" windowHeight="16440" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="语言包" sheetId="1" r:id="rId1"/>
     <sheet name="#多key测试" sheetId="2" r:id="rId2"/>
     <sheet name="#多key测试2" sheetId="3" r:id="rId3"/>
-    <sheet name="#参数表" sheetId="5" r:id="rId4"/>
+    <sheet name="参数表" sheetId="5" r:id="rId4"/>
     <sheet name="#以#开头的表示不导出" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="144525"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="318">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="329">
   <si>
     <t>服务端配置名</t>
   </si>
@@ -899,9 +899,6 @@
     <t>yyyy2244</t>
   </si>
   <si>
-    <t>ParamConfig.lua</t>
-  </si>
-  <si>
     <t>ParamConfig.json</t>
   </si>
   <si>
@@ -978,13 +975,61 @@
   </si>
   <si>
     <t>竖状导出格式，固定4列</t>
+  </si>
+  <si>
+    <t>CS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>value3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"name":"jim","age":22,"work":[12,13,"ted","walk"]}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[1,2,3,4,5]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>number[][]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>number[]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>val3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[[11],[1],[2]]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>同理string[],string[][]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[[1,2,3,4,5],[1]]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string[][]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -995,6 +1040,14 @@
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1048,7 +1101,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1073,6 +1126,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1094,16 +1153,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>207645</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>33953</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>8406</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>212725</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>39032</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>128869</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1126,8 +1185,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6017260" y="1514475"/>
-          <a:ext cx="2295525" cy="6467475"/>
+          <a:off x="13604613" y="2865906"/>
+          <a:ext cx="4582158" cy="6339728"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1432,16 +1491,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView showFormulas="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView showFormulas="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="6.375" customWidth="1"/>
     <col min="2" max="2" width="10.625" customWidth="1"/>
-    <col min="3" max="3" width="34.625" customWidth="1"/>
-    <col min="4" max="4" width="25.125" customWidth="1"/>
+    <col min="3" max="3" width="34.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1449,9 +1508,7 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
+      <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -1469,7 +1526,7 @@
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E2" s="1"/>
     </row>
@@ -1493,6 +1550,9 @@
       <c r="D4" s="3" t="s">
         <v>8</v>
       </c>
+      <c r="E4" s="3" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" s="3" t="s">
@@ -1507,6 +1567,9 @@
       <c r="D5" s="3" t="s">
         <v>12</v>
       </c>
+      <c r="E5" s="8" t="s">
+        <v>318</v>
+      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6" s="3" t="s">
@@ -1521,6 +1584,9 @@
       <c r="D6" s="3" t="s">
         <v>16</v>
       </c>
+      <c r="E6" s="8" t="s">
+        <v>328</v>
+      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A7" s="3" t="s">
@@ -1529,12 +1595,15 @@
       <c r="B7" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="3" t="s">
-        <v>18</v>
+      <c r="C7" s="8" t="s">
+        <v>317</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>18</v>
       </c>
+      <c r="E7" s="3" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A8">
@@ -1546,8 +1615,11 @@
       <c r="C8" t="s">
         <v>20</v>
       </c>
-      <c r="D8" t="s">
-        <v>21</v>
+      <c r="D8" s="9" t="s">
+        <v>319</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>327</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.15">
@@ -1562,6 +1634,9 @@
       </c>
       <c r="D9" t="s">
         <v>24</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>327</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.15">
@@ -1577,6 +1652,9 @@
       <c r="D10" t="s">
         <v>27</v>
       </c>
+      <c r="E10" s="9" t="s">
+        <v>327</v>
+      </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A11">
@@ -1591,6 +1669,9 @@
       <c r="D11" t="s">
         <v>30</v>
       </c>
+      <c r="E11" s="9" t="s">
+        <v>327</v>
+      </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A12">
@@ -1605,6 +1686,9 @@
       <c r="D12" t="s">
         <v>33</v>
       </c>
+      <c r="E12" s="9" t="s">
+        <v>327</v>
+      </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A13">
@@ -1619,6 +1703,9 @@
       <c r="D13" t="s">
         <v>36</v>
       </c>
+      <c r="E13" s="9" t="s">
+        <v>327</v>
+      </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A14">
@@ -1633,6 +1720,9 @@
       <c r="D14" t="s">
         <v>39</v>
       </c>
+      <c r="E14" s="9" t="s">
+        <v>327</v>
+      </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A15">
@@ -1647,6 +1737,9 @@
       <c r="D15" t="s">
         <v>42</v>
       </c>
+      <c r="E15" s="9" t="s">
+        <v>327</v>
+      </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A16">
@@ -1661,8 +1754,11 @@
       <c r="D16" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E16" s="9" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>10</v>
       </c>
@@ -1674,12 +1770,15 @@
       </c>
       <c r="D17" t="s">
         <v>48</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>322</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1688,7 +1787,7 @@
   <dimension ref="A1:E70"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3966,8 +4065,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView showFormulas="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView showFormulas="1" tabSelected="1" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3983,15 +4082,13 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>291</v>
-      </c>
+      <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
@@ -4003,7 +4100,7 @@
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E2" s="1">
         <v>1</v>
@@ -4011,27 +4108,27 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>294</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="C4" s="3" t="s">
         <v>295</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="D4" s="3" t="s">
         <v>296</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>297</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" s="3" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>57</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>10</v>
@@ -4067,7 +4164,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B8" t="s">
         <v>14</v>
@@ -4076,12 +4173,12 @@
         <v>18</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B9" t="s">
         <v>13</v>
@@ -4095,7 +4192,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B10" t="s">
         <v>15</v>
@@ -4109,7 +4206,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B11" t="s">
         <v>16</v>
@@ -4123,7 +4220,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B12" t="s">
         <v>15</v>
@@ -4157,10 +4254,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView showFormulas="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8:E11"/>
+    <sheetView showFormulas="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4168,11 +4265,11 @@
     <col min="2" max="2" width="8" customWidth="1"/>
     <col min="3" max="3" width="18" customWidth="1"/>
     <col min="4" max="4" width="28.5" customWidth="1"/>
-    <col min="5" max="5" width="12.625" customWidth="1"/>
-    <col min="7" max="7" width="21" customWidth="1"/>
+    <col min="5" max="6" width="12.625" customWidth="1"/>
+    <col min="8" max="8" width="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4186,11 +4283,11 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H1" s="2" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -4199,19 +4296,19 @@
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E2" s="1"/>
-      <c r="G2" s="2" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H2" s="2" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
         <v>56</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>7</v>
@@ -4219,14 +4316,20 @@
       <c r="D4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="G4" t="s">
+        <v>307</v>
+      </c>
+      <c r="H4" s="2" t="s">
         <v>308</v>
       </c>
-      <c r="G4" s="2" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" s="3" t="s">
         <v>56</v>
       </c>
@@ -4239,14 +4342,20 @@
       <c r="D5" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="G5" t="s">
+        <v>307</v>
+      </c>
+      <c r="H5" s="2" t="s">
         <v>308</v>
       </c>
-      <c r="G5" s="2" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6" s="3" t="s">
         <v>13</v>
       </c>
@@ -4259,16 +4368,22 @@
       <c r="D6" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>321</v>
+      </c>
+      <c r="G6" t="s">
+        <v>307</v>
+      </c>
+      <c r="H6" s="2" t="s">
         <v>308</v>
       </c>
-      <c r="G6" s="2" t="s">
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A7" s="3" t="s">
         <v>309</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A7" s="3" t="s">
-        <v>310</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>18</v>
@@ -4277,106 +4392,142 @@
         <v>18</v>
       </c>
       <c r="D7" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="G7" t="s">
+        <v>307</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8" t="s">
         <v>310</v>
       </c>
-      <c r="E7" t="s">
-        <v>308</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A8">
-        <v>1</v>
-      </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>311</v>
-      </c>
-      <c r="C8" t="s">
-        <v>312</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
       </c>
-      <c r="G8" t="s">
+      <c r="E8" t="s">
+        <v>320</v>
+      </c>
+      <c r="F8" t="s">
+        <v>325</v>
+      </c>
+      <c r="H8" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A9">
+        <v>2</v>
+      </c>
+      <c r="B9" t="s">
+        <v>310</v>
+      </c>
+      <c r="C9" t="s">
         <v>313</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A9">
-        <v>2</v>
-      </c>
-      <c r="B9" t="s">
-        <v>311</v>
-      </c>
-      <c r="C9" t="s">
-        <v>314</v>
       </c>
       <c r="D9" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="E9" t="s">
+        <v>320</v>
+      </c>
+      <c r="F9" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>3</v>
       </c>
       <c r="B10" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C10" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D10" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="E10" t="s">
+        <v>320</v>
+      </c>
+      <c r="F10" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>4</v>
       </c>
       <c r="B11" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C11" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D11" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="E11" s="9" t="s">
+        <v>322</v>
+      </c>
+      <c r="F11" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="F13" s="9" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A18" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="B18" s="3" t="s">
         <v>294</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="C18" s="3" t="s">
         <v>295</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="D18" s="3" t="s">
         <v>296</v>
       </c>
-      <c r="D18" s="3" t="s">
+      <c r="E18" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="F18" s="2"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A19" s="3" t="s">
         <v>297</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A19" s="3" t="s">
-        <v>298</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>57</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A20" s="3" t="s">
         <v>14</v>
       </c>
@@ -4390,7 +4541,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A21" s="3" t="s">
         <v>17</v>
       </c>

--- a/xlsx/00测试教程test.xlsx
+++ b/xlsx/00测试教程test.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\project_git\excel2json\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9BE7598-46A0-4AD8-B24D-2C8830818F92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2860E4E9-F3CD-46FE-8CE3-6F813ECCE0FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1110" yWindow="-120" windowWidth="27810" windowHeight="16440" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1110" yWindow="-120" windowWidth="27810" windowHeight="16440" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="语言包" sheetId="1" r:id="rId1"/>
-    <sheet name="#多key测试" sheetId="2" r:id="rId2"/>
-    <sheet name="#多key测试2" sheetId="3" r:id="rId3"/>
-    <sheet name="参数表" sheetId="5" r:id="rId4"/>
+    <sheet name="参数表" sheetId="5" r:id="rId2"/>
+    <sheet name="#多key测试" sheetId="2" r:id="rId3"/>
+    <sheet name="#多key测试2" sheetId="3" r:id="rId4"/>
     <sheet name="#以#开头的表示不导出" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="144525"/>
@@ -1153,16 +1153,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>33953</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>8406</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>28350</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>19612</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>39032</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>128869</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>33429</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>140076</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1185,7 +1185,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13604613" y="2865906"/>
+          <a:off x="14960524" y="2709024"/>
           <a:ext cx="4582158" cy="6339728"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1492,7 +1492,7 @@
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView showFormulas="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1783,11 +1783,202 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:E13"/>
+  <sheetViews>
+    <sheetView showFormulas="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:D13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="12.875" customWidth="1"/>
+    <col min="2" max="2" width="17.125" customWidth="1"/>
+    <col min="3" max="3" width="11.5" customWidth="1"/>
+    <col min="4" max="4" width="22.375" customWidth="1"/>
+    <col min="5" max="5" width="18.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="1">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="E2" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A4" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A5" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A7" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>299</v>
+      </c>
+      <c r="B8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>301</v>
+      </c>
+      <c r="B9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="5">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
+        <v>302</v>
+      </c>
+      <c r="B10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
+        <v>303</v>
+      </c>
+      <c r="B11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
+        <v>304</v>
+      </c>
+      <c r="B12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A13" t="s">
+        <v>55</v>
+      </c>
+      <c r="B13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E70"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2970,7 +3161,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F55"/>
   <sheetViews>
@@ -4061,203 +4252,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:E13"/>
-  <sheetViews>
-    <sheetView showFormulas="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="12.875" customWidth="1"/>
-    <col min="2" max="2" width="17.125" customWidth="1"/>
-    <col min="3" max="3" width="11.5" customWidth="1"/>
-    <col min="4" max="4" width="22.375" customWidth="1"/>
-    <col min="5" max="5" width="18.25" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="1">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="E2" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A4" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>294</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>295</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A5" s="3" t="s">
-        <v>297</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>298</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A6" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A7" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A8" t="s">
-        <v>299</v>
-      </c>
-      <c r="B8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A9" t="s">
-        <v>301</v>
-      </c>
-      <c r="B9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" t="s">
-        <v>17</v>
-      </c>
-      <c r="D9" s="5">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A10" t="s">
-        <v>302</v>
-      </c>
-      <c r="B10" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10" t="s">
-        <v>17</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A11" t="s">
-        <v>303</v>
-      </c>
-      <c r="B11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" t="s">
-        <v>17</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A12" t="s">
-        <v>304</v>
-      </c>
-      <c r="B12" t="s">
-        <v>15</v>
-      </c>
-      <c r="C12" t="s">
-        <v>18</v>
-      </c>
-      <c r="D12" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A13" t="s">
-        <v>55</v>
-      </c>
-      <c r="B13" t="s">
-        <v>16</v>
-      </c>
-      <c r="C13" t="s">
-        <v>18</v>
-      </c>
-      <c r="D13" t="s">
-        <v>21</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView showFormulas="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView showFormulas="1" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
